--- a/experiment result/64_0.9_40_zs30_kappa_lp.xlsx
+++ b/experiment result/64_0.9_40_zs30_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002273508843374203</v>
+        <v>0.02717790914236878</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.002193196913880468</v>
+        <v>0.004131403729971497</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0137706756377768</v>
+        <v>0.005625866297709435</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.002715754212115947</v>
+        <v>0.009135797588930879</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.005417206499055889</v>
+        <v>0.007871485273504586</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003485144080556227</v>
+        <v>0.003865787463685547</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003680515298603709</v>
+        <v>0.001975731753887857</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002840611557763045</v>
+        <v>0.004918953158389494</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003832740995640032</v>
+        <v>0.01564859997230179</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003421791766025352</v>
+        <v>0.02605114163580985</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.009472398233517898</v>
+        <v>0.01412499801578647</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01140182350068729</v>
+        <v>0.04795221736391601</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.003874634957138479</v>
+        <v>0.004863934745868504</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.005432344860159467</v>
+        <v>0.007267612050601627</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01093159091143438</v>
+        <v>0.004777356609808486</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.009143897465067568</v>
+        <v>0.01651914524672134</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.004241470605063909</v>
+        <v>0.03375004966197891</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.002259992605043656</v>
+        <v>0.001039553791827598</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01077472499915772</v>
+        <v>0.02318303457355181</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.008918011567548827</v>
+        <v>0.02721247699925429</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.004089187026093124</v>
+        <v>0.008993716443653463</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.002449507182866793</v>
+        <v>0.0006856797841016739</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.003279411704431899</v>
+        <v>0.009557223000567987</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00211830494015855</v>
+        <v>0.003938226531431751</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00224801878608794</v>
+        <v>0.001117102469693536</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.002679413873421728</v>
+        <v>0.01276768642917351</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.007504520471807882</v>
+        <v>0.01793943808871492</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.004687167164450022</v>
+        <v>0.01426096942045848</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01561151380722227</v>
+        <v>0.0396814454537018</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.006795827454426244</v>
+        <v>0.006977634602512643</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.001042479936460642</v>
+        <v>0.0001153829581175058</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.004422811686998826</v>
+        <v>0.005069543189641605</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.006074791085481437</v>
+        <v>0.01314321352569596</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.008186555456007466</v>
+        <v>0.004408546810527238</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.003121631254572077</v>
+        <v>0.008903512211409254</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.00905597954463184</v>
+        <v>0.009335725488690612</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.00330529482100615</v>
+        <v>0.002365430640050227</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01189326948930437</v>
+        <v>0.002845365362318472</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.004128010174026629</v>
+        <v>0.004119554003059276</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.003269755442354695</v>
+        <v>0.03056859742082542</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03209480908073697</v>
+        <v>0.05850701904368303</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.003411245502904425</v>
+        <v>0.006694246847582248</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01026211286448093</v>
+        <v>0.008505713791518047</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.004828996178666107</v>
+        <v>0.00430626525037823</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.004084275247560057</v>
+        <v>0.01010231256032007</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.03140360480866413</v>
+        <v>0.02558411819363578</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.003067022043851906</v>
+        <v>0.02335130185132406</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.005425388353645122</v>
+        <v>0.004490798701506219</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.005694782658970926</v>
+        <v>0.008686532574192749</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.009761181944639132</v>
+        <v>0.0003581349672921383</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.004145503508925957</v>
+        <v>0.0110914495296637</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.006583560781821919</v>
+        <v>0.003796697887353032</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.003470738372507929</v>
+        <v>5.265673438698565e-06</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.001312121214554245</v>
+        <v>9.413388887422961e-05</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01449289169179663</v>
+        <v>0.033457454525125</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.005930532875092499</v>
+        <v>0.005141745492704759</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.008427039616591209</v>
+        <v>0.001493550440665413</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.008290155117119825</v>
+        <v>0.01988216932551326</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.006267062738811921</v>
+        <v>0.008017747670273849</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.007455250413214072</v>
+        <v>0.0004314265148412085</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.003097093706364769</v>
+        <v>0.0001299011846400737</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.001316785408190042</v>
+        <v>0.0121730888515694</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.007920249691102273</v>
+        <v>0.02472855556336955</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.003400496036208909</v>
+        <v>0.002978737142255316</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.003699861746706404</v>
+        <v>0.03403796045018724</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.002372353007775729</v>
+        <v>0.007324855173353378</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.003398999145785046</v>
+        <v>0.002043957839299422</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.007333258504113115</v>
+        <v>0.002823004923820589</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0008762679914440359</v>
+        <v>1.95693192263426e-05</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.005415839708596619</v>
+        <v>0.004968200429479682</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.00440981118285875</v>
+        <v>0.004394883002720765</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.001653181366409624</v>
+        <v>0.006885564233870625</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.00734597773576356</v>
+        <v>0.01329776014471181</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.006458776245992309</v>
+        <v>0.004504918078064331</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.005602246522286921</v>
+        <v>0.09454834571362905</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.004692174987233533</v>
+        <v>0.04501586787093396</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.00375166972963937</v>
+        <v>0.001313287023169791</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.00505654280154741</v>
+        <v>0.03876558557667687</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.006530377398449657</v>
+        <v>0.004131719863035817</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.003984554645021181</v>
+        <v>0.001480955024542618</v>
       </c>
     </row>
   </sheetData>
